--- a/Frameworkaa/TestData/Data.xlsx
+++ b/Frameworkaa/TestData/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspacenew\Frameworkaa\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\Frameworkow\Frameworkaa\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E114F0-0424-4C21-B68A-6D46DAC8100E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ECFF56-F605-482B-99B4-F2FCB9E13D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>rmbiradar1@gmail.com</t>
+    <t>admin@yourstore.com</t>
   </si>
   <si>
-    <t>Crm123456#</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Dashboard / nopCommerce administration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +81,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,27 +369,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C765710A-B876-40E5-A9C3-15A10E30E702}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>